--- a/biology/Médecine/Paralysie/Paralysie.xlsx
+++ b/biology/Médecine/Paralysie/Paralysie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paralysie ou plégie est une perte de motricité par diminution ou perte de la contractilité d'un ou de plusieurs muscles, due à des lésions de voies nerveuses ou des muscles : si le phénomène est incomplet, on parle de parésie.
 Les paralysies d'origine nerveuse sont centrales ou périphériques.
@@ -513,7 +525,9 @@
           <t>Importance de la paralysie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le degré de paralysie se cote de 0 à 5 (selon Daniels &amp; Worthingham) :
 0 : aucune contraction (paralysie totale ou plégie) ;
@@ -551,17 +565,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formes systématiques d'origine neurologique
-On distingue les paralysies d'origine centrale, dues à une lésion au niveau du cerveau, du tronc cérébral ou de la moelle épinière :
+          <t>Formes systématiques d'origine neurologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On distingue les paralysies d'origine centrale, dues à une lésion au niveau du cerveau, du tronc cérébral ou de la moelle épinière :
 hémiplégie, proportionnelle si elle touche de façon comparable l'ensemble d'un hémicorps, ou non proportionnelle ;
 paraplégie ;
 quadriplégie (ou tétraplégie) ;
 et les paralysies d'origine périphérique, dues à l'atteinte d'une ou plusieurs racines, ou bien d'un ou plusieurs nerfs, par exemple :
 paralysie radiale ;
-paralysie du nerf médian (comme dans le syndrome du canal carpien).
-Formes d'origine psychodynamique
-Les paralysies fonctionnelles affectent des mouvements coordonnés pour réaliser un type d'action déterminé : par exemple l'astasie-abasie (trouble de la marche et de la station debout, mais permettant d'autres mouvements en dehors de la marche).
-</t>
+paralysie du nerf médian (comme dans le syndrome du canal carpien).</t>
         </is>
       </c>
     </row>
@@ -586,10 +602,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les formes de paralysie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Formes d'origine psychodynamique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les paralysies fonctionnelles affectent des mouvements coordonnés pour réaliser un type d'action déterminé : par exemple l'astasie-abasie (trouble de la marche et de la station debout, mais permettant d'autres mouvements en dehors de la marche).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paralysie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paralysie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Paralysies d'autrefois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La paralysie agitante désignait les mouvements incoordonnés du parkinsonien.[réf. souhaitée]
 La paralysie générale (PG) correspondait à la syphilis tertiaire.[réf. souhaitée]</t>
